--- a/DeathEntries-v1.xlsx
+++ b/DeathEntries-v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="25040" windowHeight="15380" tabRatio="609" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="25040" windowHeight="15380" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -1011,8 +1011,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1145,7 +1151,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="125">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1205,6 +1211,9 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1264,6 +1273,9 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2857,7 +2869,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.0</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11.0</c:v>
@@ -3473,7 +3485,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.0</c:v>
@@ -4161,8 +4173,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38:G60"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5782,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>22</v>
@@ -5808,7 +5820,7 @@
         <v>3</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>22</v>
@@ -5834,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>61</v>
@@ -8478,8 +8490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G34"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10693,8 +10705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11444,7 +11456,7 @@
         <v>15</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>65</v>
@@ -11469,7 +11481,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>7</v>
@@ -11495,7 +11507,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>7</v>
@@ -11521,7 +11533,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
@@ -14755,7 +14767,7 @@
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15753,7 +15765,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Total!G$2:G$147, A9)</f>
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -16090,7 +16102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
@@ -16174,7 +16186,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Male!G$2:G$71, A9)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/DeathEntries-v1.xlsx
+++ b/DeathEntries-v1.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="25040" windowHeight="15380" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="27700" windowHeight="15300" tabRatio="609" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,10 @@
     <sheet name="Total Cause" sheetId="7" r:id="rId7"/>
     <sheet name="Female Cause" sheetId="8" r:id="rId8"/>
     <sheet name="MaleCause" sheetId="9" r:id="rId9"/>
+    <sheet name="AllPopCauses" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$J$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total!$A$1:$I$161</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="308">
   <si>
     <t>Age</t>
   </si>
@@ -948,13 +949,19 @@
   </si>
   <si>
     <t>Eugeric (Unknown)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cerebral Hemorrhage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -993,6 +1000,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1011,7 +1024,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1137,8 +1150,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1150,8 +1213,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1214,6 +1283,31 @@
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1276,6 +1370,31 @@
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2869,7 +2988,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>11.0</c:v>
@@ -4171,27 +4290,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -4202,28 +4319,25 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -4233,23 +4347,23 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>46</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -4259,26 +4373,26 @@
       <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
         <v>79</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -4288,26 +4402,26 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>89</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -4317,23 +4431,23 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
         <v>73</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -4343,26 +4457,26 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
         <v>90</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4372,23 +4486,23 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
         <v>75</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -4398,23 +4512,23 @@
       <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
         <v>81</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4424,26 +4538,26 @@
       <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
         <v>81</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -4453,23 +4567,23 @@
       <c r="C10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
         <v>85</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>237</v>
       </c>
@@ -4479,23 +4593,23 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
         <v>88</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -4505,23 +4619,23 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
         <v>68</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>254</v>
       </c>
@@ -4531,23 +4645,23 @@
       <c r="C13" t="s">
         <v>77</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -4557,23 +4671,23 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
         <v>46</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -4583,23 +4697,23 @@
       <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
         <v>75</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -4609,23 +4723,23 @@
       <c r="C16" t="s">
         <v>92</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="I16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -4635,23 +4749,23 @@
       <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
         <v>73</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -4661,23 +4775,23 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D18" s="2">
         <v>49</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -4687,23 +4801,23 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2">
+      <c r="D19" s="2">
         <v>52</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -4713,23 +4827,23 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20" s="2">
         <v>66</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -4739,23 +4853,23 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2">
+      <c r="D21" s="2">
         <v>70</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -4765,23 +4879,23 @@
       <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D22" s="2">
         <v>71</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="I22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>270</v>
       </c>
@@ -4791,23 +4905,23 @@
       <c r="C23" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D23" s="2">
         <v>72</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="I23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -4817,23 +4931,23 @@
       <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2">
+      <c r="D24" s="2">
         <v>73</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="I24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -4843,23 +4957,23 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2">
-        <v>74</v>
+      <c r="D25" s="2">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="I25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -4869,23 +4983,23 @@
       <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26" s="2">
         <v>79</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -4895,23 +5009,23 @@
       <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="2">
+      <c r="D27" s="2">
         <v>79</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="I27" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>279</v>
       </c>
@@ -4921,23 +5035,23 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="2">
+      <c r="D28" s="2">
         <v>79</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="I28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -4947,26 +5061,26 @@
       <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29" s="2">
         <v>83</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -4976,23 +5090,23 @@
       <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2">
+      <c r="D30" s="2">
         <v>84</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="I30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -5002,23 +5116,23 @@
       <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31" s="2">
         <v>85</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="I31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5028,24 +5142,23 @@
       <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="D32" s="2">
         <v>87</v>
       </c>
+      <c r="E32" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="I32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -5055,23 +5168,23 @@
       <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="2">
+      <c r="D33" s="2">
         <v>87</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="I33" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -5081,23 +5194,23 @@
       <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34" s="2">
         <v>88</v>
       </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="I34" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -5107,23 +5220,23 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D35" s="2">
         <v>90</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="I35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -5133,23 +5246,23 @@
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="2">
+      <c r="D36" s="2">
         <v>91</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="I36" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>247</v>
       </c>
@@ -5159,1406 +5272,1413 @@
       <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37" s="2">
         <v>87</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="I37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="2">
+        <v>87</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>89</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>89</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="2">
-        <v>80</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="I40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2">
+        <v>89</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="2">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="F43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="2">
-        <v>81</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="2">
-        <v>81</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="2">
-        <v>81</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="I43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="2">
-        <v>83</v>
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>90</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="2">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="D45" s="2">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="2">
-        <v>83</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="2">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="2">
-        <v>84</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>62</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="2">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="D48" s="2">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="I48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="2">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="2">
-        <v>84</v>
+      <c r="D50" s="2">
+        <v>91</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="2">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="D51" s="2">
+        <v>91</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="2">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="D52" s="2">
+        <v>91</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2">
+        <v>91</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2">
+        <v>91</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="2">
-        <v>85</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="2">
+        <v>92</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2">
-        <v>85</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="2">
-        <v>86</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="2">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="D56" s="2">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="2">
-        <v>86</v>
+        <v>61</v>
+      </c>
+      <c r="D57" s="2">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="2">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="D58" s="2">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2">
+        <v>94</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" t="s">
         <v>41</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="2">
-        <v>86</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C60" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="2">
-        <v>86</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="D63" s="2">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="2">
-        <v>87</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>224</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" s="2">
-        <v>87</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="2">
-        <v>87</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="I63" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="2">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="D64" s="2">
+        <v>94</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>81</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="2">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="D65" s="2">
+        <v>94</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="2">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="2">
-        <v>89</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="2">
+        <v>95</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="2">
+        <v>95</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="2">
-        <v>89</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="G70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="2">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>259</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="2">
-        <v>89</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="I71" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2">
+        <v>95</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>253</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="2">
-        <v>90</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>236</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="2">
-        <v>90</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="2">
-        <v>90</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>90</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="I72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="2">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="2">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="2">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="2">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2">
+        <v>96</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="2">
-        <v>90</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="D79" s="2">
+        <v>96</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="I79" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="2">
+        <v>97</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="2">
-        <v>90</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="I80" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2">
+        <v>97</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="2">
-        <v>90</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="2">
-        <v>91</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="2">
-        <v>91</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="2">
-        <v>91</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="2">
-        <v>91</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="G81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="2">
-        <v>91</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="2">
-        <v>91</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="I81" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E82" s="2">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="D82" s="2">
+        <v>98</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="2">
+        <v>98</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2">
+        <v>98</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2">
+        <v>98</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="2">
+        <v>98</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="2">
-        <v>93</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="D87" s="2">
+        <v>98</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>240</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C84" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="2">
-        <v>93</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="2">
-        <v>93</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>266</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="2">
-        <v>93</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>274</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="2">
-        <v>93</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="I87" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
-      </c>
-      <c r="E88" s="2">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="D88" s="2">
+        <v>99</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="2">
+        <v>99</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="2">
-        <v>94</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="2">
+        <v>99</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="2">
-        <v>94</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>141</v>
@@ -6566,734 +6686,735 @@
       <c r="C91" t="s">
         <v>77</v>
       </c>
-      <c r="E91" s="2">
-        <v>94</v>
+      <c r="D91" s="2">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="2">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="2">
         <v>81</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2">
+        <v>81</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="2">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C97" t="s">
+        <v>40</v>
+      </c>
+      <c r="D97" s="2">
+        <v>81</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" t="s">
         <v>35</v>
       </c>
-      <c r="E92" s="2">
-        <v>94</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="2" t="s">
+      <c r="D98" s="2">
+        <v>83</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>164</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="I98" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C93" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="2">
-        <v>94</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2">
+        <v>83</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="2">
-        <v>94</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>127</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="2">
-        <v>94</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="2">
-        <v>95</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>162</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="2">
-        <v>95</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
-        <v>187</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="2">
-        <v>95</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
-        <v>214</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C99" t="s">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2">
-        <v>95</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="I99" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E100" s="2">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="D100" s="2">
+        <v>83</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="I100" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
-      </c>
-      <c r="E101" s="2">
-        <v>95</v>
+        <v>53</v>
+      </c>
+      <c r="D101" s="2">
+        <v>84</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="2">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="D102" s="2">
+        <v>84</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>305</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="I102" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="2">
-        <v>95</v>
+      <c r="D103" s="2">
+        <v>84</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="I103" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
-      </c>
-      <c r="E104" s="2">
-        <v>96</v>
+        <v>41</v>
+      </c>
+      <c r="D104" s="2">
+        <v>84</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="I104" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="2">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="D105" s="2">
+        <v>84</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="2">
+        <v>84</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C106" t="s">
-        <v>47</v>
-      </c>
-      <c r="E106" s="2">
-        <v>96</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="H106" s="2"/>
+      <c r="I106" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>69</v>
-      </c>
-      <c r="E107" s="2">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="D107" s="2">
+        <v>85</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
-      </c>
-      <c r="E108" s="2">
-        <v>97</v>
+        <v>7</v>
+      </c>
+      <c r="D108" s="2">
+        <v>85</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="2">
+        <v>86</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="2">
+        <v>86</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="2">
+        <v>86</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="2">
+        <v>86</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="2">
+        <v>86</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+      <c r="D114" s="2">
+        <v>86</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="2">
+        <v>87</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
         <v>81</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="D116" s="2">
+        <v>87</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C109" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" s="2">
-        <v>98</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E110" s="2">
-        <v>98</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
-        <v>209</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="2">
-        <v>98</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="A112" t="s">
-        <v>209</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C112" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="2">
-        <v>98</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="2">
-        <v>98</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="2">
-        <v>98</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="2" t="s">
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="2">
+        <v>88</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" t="s">
-        <v>222</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="2">
-        <v>99</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" t="s">
-        <v>257</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C116" t="s">
-        <v>69</v>
-      </c>
-      <c r="E116" s="2">
-        <v>99</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" t="s">
-        <v>232</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" t="s">
-        <v>52</v>
-      </c>
-      <c r="E117" s="2">
-        <v>99</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="I117" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
-      </c>
-      <c r="E118" s="2">
-        <v>100</v>
+        <v>29</v>
+      </c>
+      <c r="D118" s="2">
+        <v>88</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>272</v>
       </c>
@@ -7303,23 +7424,23 @@
       <c r="C119" t="s">
         <v>53</v>
       </c>
-      <c r="E119" s="2">
+      <c r="D119" s="2">
         <v>53</v>
       </c>
+      <c r="E119" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="I119" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -7329,26 +7450,26 @@
       <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="E120" s="2">
+      <c r="D120" s="2">
         <v>70</v>
       </c>
+      <c r="E120" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -7358,26 +7479,26 @@
       <c r="C121" t="s">
         <v>28</v>
       </c>
-      <c r="E121" s="2">
+      <c r="D121" s="2">
         <v>71</v>
       </c>
+      <c r="E121" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -7387,26 +7508,26 @@
       <c r="C122" t="s">
         <v>47</v>
       </c>
-      <c r="E122" s="2">
-        <v>74</v>
+      <c r="D122" s="2">
+        <v>74</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -7416,26 +7537,26 @@
       <c r="C123" t="s">
         <v>54</v>
       </c>
-      <c r="E123" s="2">
-        <v>74</v>
+      <c r="D123" s="2">
+        <v>74</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -7445,27 +7566,26 @@
       <c r="C124" t="s">
         <v>13</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2">
+      <c r="D124" s="2">
         <v>77</v>
       </c>
+      <c r="E124" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H124" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I124" t="s">
+      <c r="H124" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="I124" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>170</v>
       </c>
@@ -7475,23 +7595,23 @@
       <c r="C125" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="2">
+      <c r="D125" s="2">
         <v>79</v>
       </c>
+      <c r="E125" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="I125" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -7501,23 +7621,23 @@
       <c r="C126" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="2">
+      <c r="D126" s="2">
         <v>85</v>
       </c>
+      <c r="E126" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="I126" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -7527,26 +7647,26 @@
       <c r="C127" t="s">
         <v>77</v>
       </c>
-      <c r="E127" s="2">
+      <c r="D127" s="2">
         <v>85</v>
       </c>
+      <c r="E127" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>114</v>
       </c>
@@ -7556,23 +7676,23 @@
       <c r="C128" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="2">
+      <c r="D128" s="2">
         <v>89</v>
       </c>
+      <c r="E128" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="I128" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -7582,23 +7702,23 @@
       <c r="C129" t="s">
         <v>52</v>
       </c>
-      <c r="E129" s="2">
+      <c r="D129" s="2">
         <v>92</v>
       </c>
+      <c r="E129" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="I129" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -7608,23 +7728,23 @@
       <c r="C130" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="2">
+      <c r="D130" s="2">
         <v>64</v>
       </c>
+      <c r="E130" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H130" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="I130" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>273</v>
       </c>
@@ -7634,21 +7754,23 @@
       <c r="C131" t="s">
         <v>52</v>
       </c>
-      <c r="E131" s="2">
+      <c r="D131" s="2">
         <v>72</v>
       </c>
+      <c r="E131" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H131" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="I131" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -7658,23 +7780,23 @@
       <c r="C132" t="s">
         <v>53</v>
       </c>
-      <c r="E132" s="2">
+      <c r="D132" s="2">
         <v>25</v>
       </c>
+      <c r="E132" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H132" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="I132" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>269</v>
       </c>
@@ -7684,23 +7806,23 @@
       <c r="C133" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="2">
+      <c r="D133" s="2">
         <v>60</v>
       </c>
+      <c r="E133" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H133" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="I133" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -7710,23 +7832,23 @@
       <c r="C134" t="s">
         <v>37</v>
       </c>
-      <c r="E134" s="2">
+      <c r="D134" s="2">
         <v>77</v>
       </c>
+      <c r="E134" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H134" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="I134" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -7736,23 +7858,23 @@
       <c r="C135" t="s">
         <v>21</v>
       </c>
-      <c r="E135" s="2">
+      <c r="D135" s="2">
         <v>81</v>
       </c>
+      <c r="E135" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H135" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="I135" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>210</v>
       </c>
@@ -7762,23 +7884,23 @@
       <c r="C136" t="s">
         <v>21</v>
       </c>
-      <c r="E136" s="2">
+      <c r="D136" s="2">
         <v>59</v>
       </c>
+      <c r="E136" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H136" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="I136" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -7788,23 +7910,23 @@
       <c r="C137" t="s">
         <v>21</v>
       </c>
-      <c r="E137" s="2">
+      <c r="D137" s="2">
         <v>75</v>
       </c>
+      <c r="E137" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H137" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="I137" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>267</v>
       </c>
@@ -7814,23 +7936,23 @@
       <c r="C138" t="s">
         <v>25</v>
       </c>
-      <c r="E138" s="2">
+      <c r="D138" s="2">
         <v>81</v>
       </c>
+      <c r="E138" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H138" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="I138" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -7840,26 +7962,26 @@
       <c r="C139" t="s">
         <v>41</v>
       </c>
-      <c r="E139" s="2">
+      <c r="D139" s="2">
         <v>78</v>
       </c>
+      <c r="E139" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H139" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I139" t="s">
+      <c r="H139" t="s">
         <v>70</v>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="I139" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>268</v>
       </c>
@@ -7869,23 +7991,23 @@
       <c r="C140" t="s">
         <v>53</v>
       </c>
-      <c r="E140" s="2">
+      <c r="D140" s="2">
         <v>84</v>
       </c>
+      <c r="E140" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H140" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="I140" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>201</v>
       </c>
@@ -7895,26 +8017,26 @@
       <c r="C141" t="s">
         <v>69</v>
       </c>
-      <c r="E141" s="2">
+      <c r="D141" s="2">
         <v>85</v>
       </c>
+      <c r="E141" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H141" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I141" t="s">
+      <c r="H141" t="s">
         <v>70</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="I141" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>213</v>
       </c>
@@ -7924,23 +8046,23 @@
       <c r="C142" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="2">
+      <c r="D142" s="2">
         <v>92</v>
       </c>
+      <c r="E142" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H142" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="I142" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>256</v>
       </c>
@@ -7950,23 +8072,23 @@
       <c r="C143" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="2">
+      <c r="D143" s="2">
         <v>51</v>
       </c>
+      <c r="E143" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H143" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="I143" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>275</v>
       </c>
@@ -7976,23 +8098,23 @@
       <c r="C144" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="2">
+      <c r="D144" s="2">
         <v>83</v>
       </c>
+      <c r="E144" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H144" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="I144" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>265</v>
       </c>
@@ -8002,23 +8124,23 @@
       <c r="C145" t="s">
         <v>89</v>
       </c>
-      <c r="E145" s="2">
+      <c r="D145" s="2">
         <v>98</v>
       </c>
+      <c r="E145" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H145" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="I145" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>117</v>
       </c>
@@ -8028,23 +8150,23 @@
       <c r="C146" t="s">
         <v>58</v>
       </c>
-      <c r="E146" s="2">
+      <c r="D146" s="2">
         <v>102</v>
       </c>
+      <c r="E146" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H146" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="I146" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -8054,23 +8176,23 @@
       <c r="C147" t="s">
         <v>65</v>
       </c>
-      <c r="E147" s="2">
+      <c r="D147" s="2">
         <v>52</v>
       </c>
+      <c r="E147" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H147" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="I147" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>207</v>
       </c>
@@ -8080,23 +8202,23 @@
       <c r="C148" t="s">
         <v>22</v>
       </c>
-      <c r="E148" s="2">
+      <c r="D148" s="2">
         <v>36</v>
       </c>
+      <c r="E148" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="I148" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>137</v>
       </c>
@@ -8106,23 +8228,23 @@
       <c r="C149" t="s">
         <v>52</v>
       </c>
-      <c r="E149" s="2">
+      <c r="D149" s="2">
         <v>41</v>
       </c>
+      <c r="E149" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="I149" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -8132,23 +8254,23 @@
       <c r="C150" t="s">
         <v>52</v>
       </c>
-      <c r="E150" s="2">
+      <c r="D150" s="2">
         <v>55</v>
       </c>
+      <c r="E150" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="I150" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>243</v>
       </c>
@@ -8158,26 +8280,26 @@
       <c r="C151" t="s">
         <v>57</v>
       </c>
-      <c r="E151" s="2">
+      <c r="D151" s="2">
         <v>59</v>
       </c>
+      <c r="E151" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>231</v>
       </c>
@@ -8187,23 +8309,23 @@
       <c r="C152" t="s">
         <v>81</v>
       </c>
-      <c r="E152" s="2">
+      <c r="D152" s="2">
         <v>61</v>
       </c>
+      <c r="E152" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="I152" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>109</v>
       </c>
@@ -8213,23 +8335,23 @@
       <c r="C153" t="s">
         <v>5</v>
       </c>
-      <c r="E153" s="2">
+      <c r="D153" s="2">
         <v>66</v>
       </c>
+      <c r="E153" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="G153" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="I153" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>113</v>
       </c>
@@ -8239,23 +8361,23 @@
       <c r="C154" t="s">
         <v>22</v>
       </c>
-      <c r="E154" s="2">
+      <c r="D154" s="2">
         <v>72</v>
       </c>
+      <c r="E154" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="I154" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -8265,23 +8387,23 @@
       <c r="C155" t="s">
         <v>35</v>
       </c>
-      <c r="E155" s="2">
+      <c r="D155" s="2">
         <v>73</v>
       </c>
+      <c r="E155" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="I155" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -8291,23 +8413,23 @@
       <c r="C156" t="s">
         <v>47</v>
       </c>
-      <c r="E156" s="2">
-        <v>74</v>
+      <c r="D156" s="2">
+        <v>74</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="I156" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -8317,23 +8439,23 @@
       <c r="C157" t="s">
         <v>40</v>
       </c>
-      <c r="E157" s="2">
+      <c r="D157" s="2">
         <v>75</v>
       </c>
+      <c r="E157" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="I157" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>126</v>
       </c>
@@ -8343,26 +8465,26 @@
       <c r="C158" t="s">
         <v>21</v>
       </c>
-      <c r="E158" s="2">
+      <c r="D158" s="2">
         <v>77</v>
       </c>
+      <c r="E158" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>199</v>
       </c>
@@ -8372,23 +8494,23 @@
       <c r="C159" t="s">
         <v>5</v>
       </c>
-      <c r="E159" s="2">
+      <c r="D159" s="2">
         <v>78</v>
       </c>
+      <c r="E159" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="I159" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>107</v>
       </c>
@@ -8398,24 +8520,23 @@
       <c r="C160" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2">
+      <c r="D160" s="2">
         <v>82</v>
       </c>
+      <c r="E160" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="I160" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>261</v>
       </c>
@@ -8425,57 +8546,452 @@
       <c r="C161" t="s">
         <v>5</v>
       </c>
-      <c r="E161" s="2">
+      <c r="D161" s="2">
         <v>87</v>
       </c>
+      <c r="E161" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B163">
-        <f>AVERAGE(E2:E161)</f>
+        <f>AVERAGE(D2:D161)</f>
         <v>82.506329113924053</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B164">
-        <f>MAX(E2:E161)</f>
+        <f>MAX(D2:D161)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B165">
-        <f>MIN(E2:E161)</f>
+        <f>MIN(D2:D161)</f>
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J161">
-    <sortCondition ref="G2:G161"/>
-    <sortCondition ref="E2:E161"/>
+  <sortState ref="A2:I161">
+    <sortCondition ref="F66"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Total!F$2:F$147, A2)</f>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(Female!G$2:G$77, A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(Male!G$2:G$71, A2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Total!F$2:F$147, A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Female!G$2:G$77, A3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(Male!G$2:G$71, A3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Total!F$2:F$147, A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Female!G$2:G$77, A4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(Male!G$2:G$71, A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Total!F$2:F$147, A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Female!G$2:G$77, A5)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(Male!G$2:G$71, A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(Total!F$2:F$147, A6)</f>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Female!G$2:G$77, A6)</f>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(Male!G$2:G$71, A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(Total!F$2:F$147, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Female!G$2:G$77, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(Male!G$2:G$71, A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(Total!F$2:F$147, A8)</f>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Female!G$2:G$77, A8)</f>
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(Male!G$2:G$71, A8)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(Total!F$2:F$147, A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Female!G$2:G$77, A9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(Male!G$2:G$71, A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(Total!F$2:F$147, A10)</f>
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Female!G$2:G$77, A10)</f>
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(Male!G$2:G$71, A10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(Total!F$2:F$147, A11)</f>
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Female!G$2:G$77, A11)</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(Male!G$2:G$71, A11)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(Total!F$2:F$147, A12)</f>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Female!G$2:G$77, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(Male!G$2:G$71, A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(Total!F$2:F$147, A13)</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Female!G$2:G$77, A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(Male!G$2:G$71, A13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(Total!F$2:F$147, A14)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(Female!G$2:G$77, A14)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(Male!G$2:G$71, A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(Total!F$2:F$147, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(Female!G$2:G$77, A15)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(Male!G$2:G$71, A15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(Total!F$2:F$147, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIF(Female!G$2:G$77, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(Male!G$2:G$71, A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(Total!F$2:F$147, A17)</f>
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Female!G$2:G$77, A17)</f>
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(Male!G$2:G$71, A17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(Total!F$2:F$147, A18)</f>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Female!G$2:G$77, A18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(Male!G$2:G$71, A18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(Total!F$2:F$147, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Female!G$2:G$77, A19)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(Male!G$2:G$71, A19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(Total!F$2:F$147, A20)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Female!G$2:G$77, A20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(Male!G$2:G$71, A20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(Total!F$2:F$147, A21)</f>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Female!G$2:G$77, A21)</f>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(Male!G$2:G$71, A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(Total!F$2:F$147, A22)</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Female!G$2:G$77, A22)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(Male!G$2:G$71, A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -8490,8 +9006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9263,7 +9779,9 @@
       <c r="H29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
@@ -10370,7 +10888,9 @@
       <c r="H71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
@@ -10691,6 +11211,7 @@
     <sortCondition ref="G2:G82"/>
     <sortCondition ref="E2:E82"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -10705,8 +11226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11462,7 +11983,9 @@
         <v>65</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
@@ -11694,7 +12217,9 @@
       <c r="H37" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
@@ -11770,7 +12295,9 @@
       <c r="H40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
@@ -11847,7 +12374,9 @@
         <v>43</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
@@ -12873,6 +13402,7 @@
     <sortCondition ref="G2:G80"/>
     <sortCondition ref="E2:E80"/>
   </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -12898,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A1)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A1)</f>
         <v>0</v>
       </c>
     </row>
@@ -12907,7 +13437,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A2)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A2)</f>
         <v>0</v>
       </c>
     </row>
@@ -12916,7 +13446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A3)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A3)</f>
         <v>0</v>
       </c>
     </row>
@@ -12925,7 +13455,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A4)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A4)</f>
         <v>0</v>
       </c>
     </row>
@@ -12934,7 +13464,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A5)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A5)</f>
         <v>0</v>
       </c>
     </row>
@@ -12943,7 +13473,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A6)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A6)</f>
         <v>0</v>
       </c>
     </row>
@@ -12952,7 +13482,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A7)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A7)</f>
         <v>0</v>
       </c>
     </row>
@@ -12961,7 +13491,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A8)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A8)</f>
         <v>0</v>
       </c>
     </row>
@@ -12970,7 +13500,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A9)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A9)</f>
         <v>0</v>
       </c>
     </row>
@@ -12979,7 +13509,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A10)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A10)</f>
         <v>0</v>
       </c>
     </row>
@@ -12988,7 +13518,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A11)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A11)</f>
         <v>0</v>
       </c>
     </row>
@@ -12997,7 +13527,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A12)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A12)</f>
         <v>0</v>
       </c>
     </row>
@@ -13006,7 +13536,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A13)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A13)</f>
         <v>0</v>
       </c>
     </row>
@@ -13015,7 +13545,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A14)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A14)</f>
         <v>0</v>
       </c>
     </row>
@@ -13024,7 +13554,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A15)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A15)</f>
         <v>0</v>
       </c>
     </row>
@@ -13033,7 +13563,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A16)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A16)</f>
         <v>0</v>
       </c>
     </row>
@@ -13042,7 +13572,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A17)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A17)</f>
         <v>0</v>
       </c>
     </row>
@@ -13051,7 +13581,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A18)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A18)</f>
         <v>0</v>
       </c>
     </row>
@@ -13060,7 +13590,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A19)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A19)</f>
         <v>0</v>
       </c>
     </row>
@@ -13069,7 +13599,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A20)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A20)</f>
         <v>0</v>
       </c>
     </row>
@@ -13078,7 +13608,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A21)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A21)</f>
         <v>0</v>
       </c>
     </row>
@@ -13087,7 +13617,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A22)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A22)</f>
         <v>0</v>
       </c>
     </row>
@@ -13096,7 +13626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A23)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A23)</f>
         <v>0</v>
       </c>
     </row>
@@ -13105,7 +13635,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A24)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A24)</f>
         <v>0</v>
       </c>
     </row>
@@ -13114,7 +13644,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A25)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A25)</f>
         <v>1</v>
       </c>
     </row>
@@ -13123,7 +13653,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A26)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A26)</f>
         <v>0</v>
       </c>
     </row>
@@ -13132,7 +13662,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A27)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A27)</f>
         <v>0</v>
       </c>
     </row>
@@ -13141,7 +13671,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A28)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A28)</f>
         <v>0</v>
       </c>
     </row>
@@ -13150,7 +13680,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A29)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A29)</f>
         <v>0</v>
       </c>
     </row>
@@ -13159,7 +13689,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A30)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A30)</f>
         <v>0</v>
       </c>
     </row>
@@ -13168,7 +13698,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A31)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A31)</f>
         <v>0</v>
       </c>
     </row>
@@ -13177,7 +13707,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A32)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A32)</f>
         <v>0</v>
       </c>
     </row>
@@ -13186,7 +13716,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A33)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A33)</f>
         <v>0</v>
       </c>
     </row>
@@ -13195,7 +13725,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A34)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A34)</f>
         <v>0</v>
       </c>
     </row>
@@ -13204,7 +13734,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A35)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A35)</f>
         <v>0</v>
       </c>
     </row>
@@ -13213,7 +13743,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A36)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A36)</f>
         <v>1</v>
       </c>
     </row>
@@ -13222,7 +13752,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A37)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A37)</f>
         <v>0</v>
       </c>
     </row>
@@ -13231,7 +13761,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A38)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A38)</f>
         <v>0</v>
       </c>
     </row>
@@ -13240,7 +13770,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A39)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A39)</f>
         <v>0</v>
       </c>
     </row>
@@ -13249,7 +13779,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A40)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A40)</f>
         <v>0</v>
       </c>
     </row>
@@ -13258,7 +13788,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A41)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A41)</f>
         <v>1</v>
       </c>
     </row>
@@ -13267,7 +13797,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A42)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A42)</f>
         <v>0</v>
       </c>
     </row>
@@ -13276,7 +13806,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A43)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A43)</f>
         <v>0</v>
       </c>
     </row>
@@ -13285,7 +13815,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A44)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A44)</f>
         <v>0</v>
       </c>
     </row>
@@ -13294,7 +13824,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A45)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A45)</f>
         <v>0</v>
       </c>
     </row>
@@ -13303,7 +13833,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A46)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A46)</f>
         <v>2</v>
       </c>
     </row>
@@ -13312,7 +13842,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A47)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A47)</f>
         <v>0</v>
       </c>
     </row>
@@ -13321,7 +13851,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A48)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A48)</f>
         <v>0</v>
       </c>
     </row>
@@ -13330,7 +13860,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A49)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A49)</f>
         <v>1</v>
       </c>
     </row>
@@ -13339,7 +13869,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A50)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A50)</f>
         <v>0</v>
       </c>
     </row>
@@ -13348,7 +13878,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A51)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A51)</f>
         <v>1</v>
       </c>
     </row>
@@ -13357,7 +13887,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A52)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A52)</f>
         <v>2</v>
       </c>
     </row>
@@ -13366,7 +13896,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A53)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A53)</f>
         <v>1</v>
       </c>
     </row>
@@ -13375,7 +13905,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A54)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A54)</f>
         <v>0</v>
       </c>
     </row>
@@ -13384,7 +13914,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A55)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A55)</f>
         <v>1</v>
       </c>
     </row>
@@ -13393,7 +13923,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A56)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A56)</f>
         <v>0</v>
       </c>
     </row>
@@ -13402,7 +13932,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A57)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A57)</f>
         <v>0</v>
       </c>
     </row>
@@ -13411,7 +13941,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A58)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A58)</f>
         <v>0</v>
       </c>
     </row>
@@ -13420,7 +13950,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A59)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A59)</f>
         <v>2</v>
       </c>
     </row>
@@ -13429,7 +13959,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A60)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A60)</f>
         <v>1</v>
       </c>
     </row>
@@ -13438,7 +13968,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A61)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A61)</f>
         <v>1</v>
       </c>
     </row>
@@ -13447,7 +13977,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A62)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A62)</f>
         <v>0</v>
       </c>
     </row>
@@ -13456,7 +13986,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A63)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A63)</f>
         <v>0</v>
       </c>
     </row>
@@ -13465,7 +13995,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A64)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A64)</f>
         <v>1</v>
       </c>
     </row>
@@ -13474,7 +14004,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A65)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A65)</f>
         <v>0</v>
       </c>
     </row>
@@ -13483,7 +14013,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A66)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A66)</f>
         <v>2</v>
       </c>
     </row>
@@ -13492,7 +14022,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A67)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A67)</f>
         <v>0</v>
       </c>
     </row>
@@ -13501,7 +14031,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A68)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A68)</f>
         <v>1</v>
       </c>
     </row>
@@ -13510,7 +14040,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A69)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A69)</f>
         <v>0</v>
       </c>
     </row>
@@ -13519,7 +14049,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A70)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A70)</f>
         <v>2</v>
       </c>
     </row>
@@ -13528,7 +14058,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A71)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A71)</f>
         <v>2</v>
       </c>
     </row>
@@ -13537,7 +14067,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A72)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A72)</f>
         <v>3</v>
       </c>
     </row>
@@ -13546,7 +14076,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A73)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A73)</f>
         <v>4</v>
       </c>
     </row>
@@ -13555,7 +14085,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A74)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A74)</f>
         <v>4</v>
       </c>
     </row>
@@ -13564,7 +14094,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A75)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A75)</f>
         <v>4</v>
       </c>
     </row>
@@ -13573,7 +14103,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A76)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A76)</f>
         <v>0</v>
       </c>
     </row>
@@ -13582,7 +14112,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A77)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A77)</f>
         <v>3</v>
       </c>
     </row>
@@ -13591,7 +14121,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A78)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A78)</f>
         <v>2</v>
       </c>
     </row>
@@ -13600,7 +14130,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A79)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A79)</f>
         <v>6</v>
       </c>
     </row>
@@ -13609,7 +14139,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A80)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A80)</f>
         <v>1</v>
       </c>
     </row>
@@ -13618,7 +14148,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A81)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A81)</f>
         <v>8</v>
       </c>
     </row>
@@ -13627,7 +14157,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A82)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A82)</f>
         <v>0</v>
       </c>
     </row>
@@ -13636,7 +14166,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A83)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A83)</f>
         <v>5</v>
       </c>
     </row>
@@ -13645,7 +14175,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A84)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A84)</f>
         <v>8</v>
       </c>
     </row>
@@ -13654,7 +14184,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A85)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A85)</f>
         <v>7</v>
       </c>
     </row>
@@ -13663,7 +14193,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A86)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A86)</f>
         <v>6</v>
       </c>
     </row>
@@ -13672,7 +14202,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A87)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A87)</f>
         <v>6</v>
       </c>
     </row>
@@ -13681,7 +14211,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A88)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A88)</f>
         <v>4</v>
       </c>
     </row>
@@ -13690,7 +14220,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A89)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A89)</f>
         <v>5</v>
       </c>
     </row>
@@ -13699,7 +14229,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A90)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A90)</f>
         <v>9</v>
       </c>
     </row>
@@ -13708,7 +14238,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A91)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A91)</f>
         <v>7</v>
       </c>
     </row>
@@ -13717,7 +14247,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A92)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A92)</f>
         <v>3</v>
       </c>
     </row>
@@ -13726,7 +14256,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A93)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A93)</f>
         <v>6</v>
       </c>
     </row>
@@ -13735,7 +14265,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A94)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A94)</f>
         <v>7</v>
       </c>
     </row>
@@ -13744,7 +14274,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A95)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A95)</f>
         <v>8</v>
       </c>
     </row>
@@ -13753,7 +14283,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A96)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A96)</f>
         <v>3</v>
       </c>
     </row>
@@ -13762,7 +14292,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A97)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A97)</f>
         <v>2</v>
       </c>
     </row>
@@ -13771,7 +14301,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A98)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A98)</f>
         <v>7</v>
       </c>
     </row>
@@ -13780,7 +14310,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A99)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A99)</f>
         <v>3</v>
       </c>
     </row>
@@ -13789,7 +14319,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A100)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A100)</f>
         <v>1</v>
       </c>
     </row>
@@ -13798,7 +14328,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A101)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A101)</f>
         <v>0</v>
       </c>
     </row>
@@ -13807,11 +14337,12 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <f>COUNTIF(Total!E$2:E$159, TotalGraph!A102)</f>
+        <f>COUNTIF(Total!D$2:D$159, TotalGraph!A102)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -14752,7 +15283,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -15664,7 +16197,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -15679,7 +16214,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O32:O33"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15692,7 +16227,7 @@
         <v>32</v>
       </c>
       <c r="B1">
-        <f>COUNTIF(Total!G$2:G$147, A1)</f>
+        <f>COUNTIF(Total!F$2:F$147, A1)</f>
         <v>3</v>
       </c>
     </row>
@@ -15701,7 +16236,7 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Total!G$2:G$147, A2)</f>
+        <f>COUNTIF(Total!F$2:F$147, A2)</f>
         <v>2</v>
       </c>
     </row>
@@ -15710,7 +16245,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Total!G$2:G$147, A3)</f>
+        <f>COUNTIF(Total!F$2:F$147, A3)</f>
         <v>1</v>
       </c>
     </row>
@@ -15719,7 +16254,7 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Total!G$2:G$147, A4)</f>
+        <f>COUNTIF(Total!F$2:F$147, A4)</f>
         <v>1</v>
       </c>
     </row>
@@ -15728,7 +16263,7 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Total!G$2:G$147, A5)</f>
+        <f>COUNTIF(Total!F$2:F$147, A5)</f>
         <v>3</v>
       </c>
     </row>
@@ -15737,7 +16272,7 @@
         <v>72</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(Total!G$2:G$147, A6)</f>
+        <f>COUNTIF(Total!F$2:F$147, A6)</f>
         <v>1</v>
       </c>
     </row>
@@ -15746,7 +16281,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(Total!G$2:G$147, A7)</f>
+        <f>COUNTIF(Total!F$2:F$147, A7)</f>
         <v>19</v>
       </c>
     </row>
@@ -15755,7 +16290,7 @@
         <v>85</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(Total!G$2:G$147, A8)</f>
+        <f>COUNTIF(Total!F$2:F$147, A8)</f>
         <v>1</v>
       </c>
     </row>
@@ -15764,8 +16299,8 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(Total!G$2:G$147, A9)</f>
-        <v>55</v>
+        <f>COUNTIF(Total!F$2:F$147, A9)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -15773,7 +16308,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(Total!G$2:G$147, A10)</f>
+        <f>COUNTIF(Total!F$2:F$147, A10)</f>
         <v>11</v>
       </c>
     </row>
@@ -15782,7 +16317,7 @@
         <v>98</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(Total!G$2:G$147, A11)</f>
+        <f>COUNTIF(Total!F$2:F$147, A11)</f>
         <v>2</v>
       </c>
     </row>
@@ -15791,7 +16326,7 @@
         <v>90</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(Total!G$2:G$147, A12)</f>
+        <f>COUNTIF(Total!F$2:F$147, A12)</f>
         <v>2</v>
       </c>
     </row>
@@ -15800,7 +16335,7 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(Total!G$2:G$147, A13)</f>
+        <f>COUNTIF(Total!F$2:F$147, A13)</f>
         <v>1</v>
       </c>
     </row>
@@ -15809,7 +16344,7 @@
         <v>304</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(Total!G$2:G$147, A14)</f>
+        <f>COUNTIF(Total!F$2:F$147, A14)</f>
         <v>1</v>
       </c>
     </row>
@@ -15818,7 +16353,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(Total!G$2:G$147, A15)</f>
+        <f>COUNTIF(Total!F$2:F$147, A15)</f>
         <v>1</v>
       </c>
     </row>
@@ -15827,7 +16362,7 @@
         <v>76</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(Total!G$2:G$147, A16)</f>
+        <f>COUNTIF(Total!F$2:F$147, A16)</f>
         <v>2</v>
       </c>
     </row>
@@ -15836,7 +16371,7 @@
         <v>55</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(Total!G$2:G$147, A17)</f>
+        <f>COUNTIF(Total!F$2:F$147, A17)</f>
         <v>4</v>
       </c>
     </row>
@@ -15845,7 +16380,7 @@
         <v>94</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(Total!G$2:G$147, A18)</f>
+        <f>COUNTIF(Total!F$2:F$147, A18)</f>
         <v>1</v>
       </c>
     </row>
@@ -15854,7 +16389,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(Total!G$2:G$147, A19)</f>
+        <f>COUNTIF(Total!F$2:F$147, A19)</f>
         <v>1</v>
       </c>
     </row>
@@ -15863,7 +16398,7 @@
         <v>79</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(Total!G$2:G$147, A20)</f>
+        <f>COUNTIF(Total!F$2:F$147, A20)</f>
         <v>2</v>
       </c>
     </row>
@@ -15872,11 +16407,12 @@
         <v>102</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(Total!G$2:G$147, A21)</f>
+        <f>COUNTIF(Total!F$2:F$147, A21)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -15893,7 +16429,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16088,7 +16624,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16103,7 +16641,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16298,7 +16836,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
